--- a/src/main/resources/answers.xlsx
+++ b/src/main/resources/answers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="433">
   <si>
     <t>id</t>
   </si>
@@ -915,9 +915,6 @@
     <t>Ваши вложения устарели</t>
   </si>
   <si>
-    <t>Все вложения удалены</t>
-  </si>
-  <si>
     <t>Лимит вложения достигнут</t>
   </si>
   <si>
@@ -942,10 +939,6 @@
   </si>
   <si>
     <t>Автор проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[API](https://github.com/ilyukou/beldtp-api)
-[Инструкция для разработчика](https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md) </t>
   </si>
   <si>
     <t>Описание происшествия добавлено!
@@ -1019,6 +1012,338 @@
 Кнопка "Отмена" удаляет все отправленные данные и возвращает в главное меню.</t>
   </si>
   <si>
+    <t>Sent Incidents</t>
+  </si>
+  <si>
+    <t>Адпраўленыя здарэння</t>
+  </si>
+  <si>
+    <t>Rejected Incidents</t>
+  </si>
+  <si>
+    <t>Няма здарэнняў</t>
+  </si>
+  <si>
+    <t>Rejected I ncident is 0</t>
+  </si>
+  <si>
+    <t>Нет происшествий</t>
+  </si>
+  <si>
+    <t>No incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User profile_x000D_
+_x000D_
+Username expected in text format. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профіль карыстальніка_x000D_
+_x000D_
+Чакаецца username карыстальніка ў тэкставым фармаце. </t>
+  </si>
+  <si>
+    <t>Устанавіць</t>
+  </si>
+  <si>
+    <t>Number of users</t>
+  </si>
+  <si>
+    <t>Якія мовы выкарыстоўваюцца:</t>
+  </si>
+  <si>
+    <t>Распеределение по языкам:</t>
+  </si>
+  <si>
+    <t>Number of incidents</t>
+  </si>
+  <si>
+    <t>Published incidents</t>
+  </si>
+  <si>
+    <t>Rejected incidents</t>
+  </si>
+  <si>
+    <t>Deleted incidents</t>
+  </si>
+  <si>
+    <t>Change user's rights</t>
+  </si>
+  <si>
+    <t>You cannot change your access rights</t>
+  </si>
+  <si>
+    <t>Вы не можаце змяніць свае правы доступу</t>
+  </si>
+  <si>
+    <t>Requires at least one attachment</t>
+  </si>
+  <si>
+    <t>Add a description</t>
+  </si>
+  <si>
+    <t>Add a location</t>
+  </si>
+  <si>
+    <t>Add a time</t>
+  </si>
+  <si>
+    <t>Your application has been sent</t>
+  </si>
+  <si>
+    <t>Ваша заяўка адпраўлена</t>
+  </si>
+  <si>
+    <t>Выберите время, когда случилось данное происшествие</t>
+  </si>
+  <si>
+    <t>Выберыце час, калі здарылася дадзенае здарэнне</t>
+  </si>
+  <si>
+    <t>Choose the time when this incident happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У дадзеным меню вы можаце дадаць фота, відэа ці дакумент._x000D_
+_x000D_
+Колькасць укладанняў у суме павінна не перавышаць 10 штук._x000D_
+_x000D_
+Калі пасля даданне укладанняў, вы не завяршаеце заяўку доўгі час, бот можа папрасіць адправіць усе ўкладанні зноў. Гэта звязана з тым, што Telegram захоўвае любыя файлы, якія вы адправілі боту не больш за 24 гадзін. </t>
+  </si>
+  <si>
+    <t>В данном меню вы можете добавить фото, видео или документ.
+Количество вложений в сумме должно не превышать 10 штук.
+Если после добавление вложений, вы не завершаете заявку долгое время, бот может попросить отправить все вложения заново. Это связано с тем, что Telegram хранит любые файлы, которые вы отправили боту не более 24 часов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this menu you can add a photo, video or document._x000D_
+_x000D_
+The number of attechments in the amount should not exceed 10 pieces._x000D_
+_x000D_
+If after adding attachments, you do not complete the application for a long time, the bot may ask to send all attachments again. This is due to the fact that Telegram stores any files that you sent to the bot for no more than 24 hours. </t>
+  </si>
+  <si>
+    <t>In this menu you can add the location of the incident.
+In the lower right corner (Android), in the section for adding attachments, you can send geolocation, this option is available only from Telegram mobile clients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.
+Для выдаленне выпадковых фалаў націсніце кнопку "Выдаліць усе ўкладанні" пасля яе адпраўце ўкладання нанова.</t>
+  </si>
+  <si>
+    <t>To continue filling in the incident, click "Back" and fill in the remaining fields.
+To delete random files, click the button "Delete all attachments" after it, send the attachments again.</t>
+  </si>
+  <si>
+    <t>У дадзеным меню вы можаце дадаць месцазнаходжанне здарэння
+Справа ў ніжнім куце (Android) у раздзеле дадання укладанняў можна адправіць геолокацию, дадзеная опцыя даступная толькі з мабільных кліентаў Telegram.</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Учора</t>
+  </si>
+  <si>
+    <t>Choose another time</t>
+  </si>
+  <si>
+    <t>Choose year</t>
+  </si>
+  <si>
+    <t>Choose month</t>
+  </si>
+  <si>
+    <t>An irrelevant action or error processing the request. Try it again.
+/start - Restart the bot</t>
+  </si>
+  <si>
+    <t>Неактуальнае дзеянне альбо памылка пры апрацоўцы просьбы. Паспрабуйце снова.
+/start - Перезапуск бота</t>
+  </si>
+  <si>
+    <t>Месцазнаходжанне здарэння дададзена!</t>
+  </si>
+  <si>
+    <t>Месцазнаходжанне здарэння дададзена!
+Для змены дададзенага месцазнаходжаньня адпраўце новае. Старое месцазнаходжанне будзе заменена.
+Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.</t>
+  </si>
+  <si>
+    <t>Incident location added!
+To change the added location, send a new one. The old location will be replaced.
+To continue filling out the incident, click "Back" and fill in the remaining fields.</t>
+  </si>
+  <si>
+    <t>Description of the incident added!
+To change the added description, send a new one. The old description will be replaced.
+To continue filling out the incident, click "Back" and fill in the remaining fields.</t>
+  </si>
+  <si>
+    <t>Апісанне здарэння дададзена!</t>
+  </si>
+  <si>
+    <t>Апісанне здарэння дададзена!
+Для змены дададзенага апісанне адпраўце новае. Старое апісанне будзе заменена.
+Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.</t>
+  </si>
+  <si>
+    <t>Ліміт ўкладання дасягнуты</t>
+  </si>
+  <si>
+    <t>Attachment limit reached</t>
+  </si>
+  <si>
+    <t>Вашы ўкладанні састарэлі</t>
+  </si>
+  <si>
+    <t>Your attachments are out of date</t>
+  </si>
+  <si>
+    <t>Valid file formats</t>
+  </si>
+  <si>
+    <t>Дапушчальныя фарматы файлаў</t>
+  </si>
+  <si>
+    <t>Максімальны памер файла</t>
+  </si>
+  <si>
+    <t>Max file size</t>
+  </si>
+  <si>
+    <t>Project Author</t>
+  </si>
+  <si>
+    <t>Аўтар праекта</t>
+  </si>
+  <si>
+    <t>Сардэчна запрашаем !</t>
+  </si>
+  <si>
+    <t>Welcome !</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Профіль</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Мова</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Дапамога</t>
+  </si>
+  <si>
+    <t>Дадаць</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>About bot</t>
+  </si>
+  <si>
+    <t>Аб боце</t>
+  </si>
+  <si>
+    <t>Какие языки используются:</t>
+  </si>
+  <si>
+    <t>Дадаць час</t>
+  </si>
+  <si>
+    <t>Дадаць апісанне</t>
+  </si>
+  <si>
+    <t>Add description</t>
+  </si>
+  <si>
+    <t>Add attachments</t>
+  </si>
+  <si>
+    <t>Дадаць ўкладання</t>
+  </si>
+  <si>
+    <t>Ўкладанне дададзена</t>
+  </si>
+  <si>
+    <t>Attachment added</t>
+  </si>
+  <si>
+    <t>Add location</t>
+  </si>
+  <si>
+    <t>Дадаць месцазнаходжанне</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Памылка</t>
+  </si>
+  <si>
+    <t>Location added</t>
+  </si>
+  <si>
+    <t>Description added</t>
+  </si>
+  <si>
+    <t>Выберите удобный язык для Вас.
+В разделе настройки бота язык использования можно будет изменить.</t>
+  </si>
+  <si>
+    <t>Настройки</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Налады</t>
+  </si>
+  <si>
+    <t>Удалить все вложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete attachments </t>
+  </si>
+  <si>
+    <t>Выдаліць усе ўкладання</t>
+  </si>
+  <si>
+    <t>textHasEntities</t>
+  </si>
+  <si>
+    <t>Отправленное сообщение содержит неподдерживаемые типы: ссылка, команда и др.</t>
+  </si>
+  <si>
+    <t>Адпраўленае паведамленне змяшчае непадтрымоўваныя тыпы: спасылка, каманда і інш.</t>
+  </si>
+  <si>
+    <t>The sent message contains unsupported types: link, command, etc.</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>ссылка</t>
+  </si>
+  <si>
+    <t>спасылка</t>
+  </si>
+  <si>
     <t>Add incident menu._x000D_
 _x000D_
 To create an application you need:_x000D_
@@ -1031,425 +1356,121 @@
 _x000D_
 After confirmation the incident, it will be sent for moderation._x000D_
 _x000D_
-The Cancel" button "deletes all sent data and returns to the main menu."</t>
-  </si>
-  <si>
-    <t>Sent Incidents</t>
-  </si>
-  <si>
-    <t>Адпраўленыя здарэння</t>
-  </si>
-  <si>
-    <t>Rejected Incidents</t>
-  </si>
-  <si>
-    <t>Няма здарэнняў</t>
-  </si>
-  <si>
-    <t>Rejected I ncident is 0</t>
-  </si>
-  <si>
-    <t>Нет происшествий</t>
-  </si>
-  <si>
-    <t>No incidents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User profile_x000D_
-_x000D_
-Username expected in text format. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Профіль карыстальніка_x000D_
-_x000D_
-Чакаецца username карыстальніка ў тэкставым фармаце. </t>
-  </si>
-  <si>
-    <t>Устанавіць</t>
-  </si>
-  <si>
-    <t>Number of users</t>
-  </si>
-  <si>
-    <t>Якія мовы выкарыстоўваюцца:</t>
-  </si>
-  <si>
-    <t>Распеределение по языкам:</t>
-  </si>
-  <si>
-    <t>Number of incidents</t>
-  </si>
-  <si>
-    <t>Published incidents</t>
-  </si>
-  <si>
-    <t>Rejected incidents</t>
-  </si>
-  <si>
-    <t>Deleted incidents</t>
-  </si>
-  <si>
-    <t>Change user's rights</t>
-  </si>
-  <si>
-    <t>You cannot change your access rights</t>
-  </si>
-  <si>
-    <t>Вы не можаце змяніць свае правы доступу</t>
-  </si>
-  <si>
-    <t>Requires at least one attachment</t>
-  </si>
-  <si>
-    <t>Add a description</t>
-  </si>
-  <si>
-    <t>Add a location</t>
-  </si>
-  <si>
-    <t>Add a time</t>
-  </si>
-  <si>
-    <t>Your application has been sent</t>
-  </si>
-  <si>
-    <t>Ваша заяўка адпраўлена</t>
-  </si>
-  <si>
-    <t>Выберите время, когда случилось данное происшествие</t>
-  </si>
-  <si>
-    <t>Выберыце час, калі здарылася дадзенае здарэнне</t>
-  </si>
-  <si>
-    <t>Choose the time when this incident happened.</t>
+The "Cancel" button deletes all sent data and returns to the main menu.</t>
+  </si>
+  <si>
+    <t>В данном меню вы можете добавить описание или любую другую текстовую информацию о  происшествия.
+Для добавления отправьте текстовое сообщение длиной не более 700 символов. 
+Если вы привысили лимит бот попросит отправить сообщение заново.</t>
   </si>
   <si>
     <t xml:space="preserve">In this menu you can add a description or any other textual information about the incident_x000D_.
 _x000D_
-To add, send a text message no longer than 400 characters._x000D_
+To add, send a text message no longer than 700 characters._x000D_
 _x000D_
 If you exceed the limit, the bot will ask you to send the message again. </t>
   </si>
   <si>
-    <t>В данном меню вы можете добавить описание или любую другую текстовую информацию о  происшествия.
-Для добавления отправьте текстовое сообщение длиной не более 400 символов. 
-Если вы привысили лимит бот попросит отправить сообщение заново.</t>
-  </si>
-  <si>
     <t xml:space="preserve">У дадзеным меню вы можаце дадаць апісанне або любую іншую тэкставую інфармацыю аб здарэння_x000D_.
 _x000D_
-Для дадання адпраўце тэкставае паведамленне даўжынёй не больш за 400 сімвалаў._x000D_
+Для дадання адпраўце тэкставае паведамленне даўжынёй не больш за 700 сімвалаў._x000D_
 _x000D_
 Калі вы привысили ліміт, бот папросіць адправіць паведамленне зноў. </t>
   </si>
   <si>
-    <t xml:space="preserve">У дадзеным меню вы можаце дадаць фота, відэа ці дакумент._x000D_
-_x000D_
-Колькасць укладанняў у суме павінна не перавышаць 10 штук._x000D_
-_x000D_
-Калі пасля даданне укладанняў, вы не завяршаеце заяўку доўгі час, бот можа папрасіць адправіць усе ўкладанні зноў. Гэта звязана з тым, што Telegram захоўвае любыя файлы, якія вы адправілі боту не больш за 24 гадзін. </t>
-  </si>
-  <si>
-    <t>В данном меню вы можете добавить фото, видео или документ.
-Количество вложений в сумме должно не превышать 10 штук.
-Если после добавление вложений, вы не завершаете заявку долгое время, бот может попросить отправить все вложения заново. Это связано с тем, что Telegram хранит любые файлы, которые вы отправили боту не более 24 часов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this menu you can add a photo, video or document._x000D_
-_x000D_
-The number of attechments in the amount should not exceed 10 pieces._x000D_
-_x000D_
-If after adding attachments, you do not complete the application for a long time, the bot may ask to send all attachments again. This is due to the fact that Telegram stores any files that you sent to the bot for no more than 24 hours. </t>
-  </si>
-  <si>
-    <t>In this menu you can add the location of the incident.
-In the lower right corner (Android), in the section for adding attachments, you can send geolocation, this option is available only from Telegram mobile clients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.
-Для выдаленне выпадковых фалаў націсніце кнопку "Выдаліць усе ўкладанні" пасля яе адпраўце ўкладання нанова.</t>
-  </si>
-  <si>
-    <t>To continue filling in the incident, click "Back" and fill in the remaining fields.
-To delete random files, click the button "Delete all attachments" after it, send the attachments again.</t>
-  </si>
-  <si>
-    <t>У дадзеным меню вы можаце дадаць месцазнаходжанне здарэння
-Справа ў ніжнім куце (Android) у раздзеле дадання укладанняў можна адправіць геолокацию, дадзеная опцыя даступная толькі з мабільных кліентаў Telegram.</t>
-  </si>
-  <si>
-    <t>Yesterday</t>
-  </si>
-  <si>
-    <t>Учора</t>
-  </si>
-  <si>
-    <t>Choose another time</t>
-  </si>
-  <si>
-    <t>Choose year</t>
-  </si>
-  <si>
-    <t>Choose month</t>
-  </si>
-  <si>
-    <t>An irrelevant action or error processing the request. Try it again.
-/start - Restart the bot</t>
-  </si>
-  <si>
-    <t>Неактуальнае дзеянне альбо памылка пры апрацоўцы просьбы. Паспрабуйце снова.
-/start - Перезапуск бота</t>
-  </si>
-  <si>
-    <t>Месцазнаходжанне здарэння дададзена!</t>
-  </si>
-  <si>
-    <t>Месцазнаходжанне здарэння дададзена!
-Для змены дададзенага месцазнаходжаньня адпраўце новае. Старое месцазнаходжанне будзе заменена.
-Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.</t>
-  </si>
-  <si>
-    <t>Incident location added!
-To change the added location, send a new one. The old location will be replaced.
-To continue filling out the incident, click "Back" and fill in the remaining fields.</t>
-  </si>
-  <si>
-    <t>Description of the incident added!
-To change the added description, send a new one. The old description will be replaced.
-To continue filling out the incident, click "Back" and fill in the remaining fields.</t>
-  </si>
-  <si>
-    <t>Апісанне здарэння дададзена!</t>
-  </si>
-  <si>
-    <t>Апісанне здарэння дададзена!
-Для змены дададзенага апісанне адпраўце новае. Старое апісанне будзе заменена.
-Для працягу запаўнення здарэння націсніце "Назад" і запоўніце астатнія поля.</t>
-  </si>
-  <si>
-    <t>Ліміт ўкладання дасягнуты</t>
-  </si>
-  <si>
-    <t>Attachment limit reached</t>
-  </si>
-  <si>
-    <t>All attachments deleted</t>
-  </si>
-  <si>
-    <t>Усе ўкладанні выдаленыя</t>
-  </si>
-  <si>
-    <t>Вашы ўкладанні састарэлі</t>
-  </si>
-  <si>
-    <t>Your attachments are out of date</t>
-  </si>
-  <si>
-    <t>Valid file formats</t>
-  </si>
-  <si>
-    <t>Дапушчальныя фарматы файлаў</t>
-  </si>
-  <si>
-    <t>Максімальны памер файла</t>
-  </si>
-  <si>
-    <t>Max file size</t>
-  </si>
-  <si>
-    <t>Project Author</t>
-  </si>
-  <si>
-    <t>Аўтар праекта</t>
-  </si>
-  <si>
-    <t>Сардэчна запрашаем !</t>
-  </si>
-  <si>
-    <t>Welcome !</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Профіль</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Мова</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>Дапамога</t>
-  </si>
-  <si>
-    <t>Дадаць</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>About bot</t>
-  </si>
-  <si>
-    <t>Аб боце</t>
-  </si>
-  <si>
-    <t>Какие языки используются:</t>
-  </si>
-  <si>
-    <t>Дадаць час</t>
-  </si>
-  <si>
-    <t>Дадаць апісанне</t>
-  </si>
-  <si>
-    <t>Add description</t>
-  </si>
-  <si>
-    <t>Add attachments</t>
-  </si>
-  <si>
-    <t>Дадаць ўкладання</t>
-  </si>
-  <si>
-    <t>Ўкладанне дададзена</t>
-  </si>
-  <si>
-    <t>Attachment added</t>
-  </si>
-  <si>
-    <t>Add location</t>
-  </si>
-  <si>
-    <t>Дадаць месцазнаходжанне</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Памылка</t>
-  </si>
-  <si>
-    <t>Location added</t>
-  </si>
-  <si>
-    <t>Description added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[API](https://github.com/ilyukou/beldtp-api)_x000D_
-_x000D_
-[Developer Guide](https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[API](https://github.com/ilyukou/beldtp-api)_x000D_
-_x000D_
-[Інструкцыя для распрацоўніка](https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md) </t>
-  </si>
-  <si>
-    <t>Выберите удобный язык для Вас.
-В разделе настройки бота язык использования можно будет изменить.</t>
-  </si>
-  <si>
-    <t>Настройки</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>Налады</t>
+    <t>Welcome!
+The bot has created to fill the public database of road accidents in the Republic of Belarus.
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Instructions for using the bot&lt;/a&gt;
+You can get information about all sent incidents via the &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; or download them from &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;cloud storage&lt;/a&gt;.
+Each newly sent incident will be published in &lt;a href="http://t.me/beldtp"&gt;channel&lt;/a&gt;
+&lt;a href="http://t.me/beldtp_chat"&gt;Group&lt;/a&gt; on traffic accidents, traffic violations in Belarus
+&lt;a href="http://t.me/ilyukou"&gt;Project author&lt;/a&gt;</t>
   </si>
   <si>
     <t>Добро пожаловать!
 Бот создан для наполнения общедоступной базы дорожно-транспортных происшествий на территории Республики Беларусь.
-[Инструкция по использованию бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)
-Получить информацию о всех отправленных происшествиях можно через [API](https://github.com/ilyukou/beldtp-api) или скачать их из [облачного хранилища](https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md). 
-Каждое новое отправленное происшествие будет публиковаться в [канале](http://t.me/beldtp)
-[Группа](http://t.me/beldtp_chat) по вопросам ДТП, нарушений ППД в Беларуси
-[Автор проекта](http://t.me/ilyukou)</t>
-  </si>
-  <si>
-    <t>Welcome!
-The bot has created to fill the public database of road accidents in the Republic of Belarus.
-[Instructions for using the bot](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)
-You can get information about all sent incidents via the [API](https://github.com/ilyukou/beldtp-api) or download them from [cloud storage](https://github.com/ilyukou/beldtp-api/tree /master/docs/Drive.md).
-Each newly sent incident will be published in [channel](http://t.me/beldtp)
-[Group](http://t.me/beldtp_chat) on traffic accidents, traffic violations in Belarus
-[Project author](http://t.me/ilyukou)</t>
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Инструкция по использованию бота&lt;/a&gt;
+Получить информацию о всех отправленных происшествиях можно через &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; или скачать их из &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;облачного хранилища&lt;/a&gt;
+Каждое новое отправленное происшествие будет публиковаться в &lt;a href="http://t.me/beldtp"&gt;канале&lt;/a&gt;
+&lt;a href="http://t.me/beldtp_chat"&gt;Группа&lt;/a&gt; по вопросам ДТП, нарушений ППД в Беларуси
+&lt;a href="http://t.me/ilyukou"&gt;Автор проекта&lt;/a&gt;</t>
   </si>
   <si>
     <t>Сардэчна запрашаем!_x000D_
 _x000D_
 Бот створаны для напаўнення агульнадаступнай базы дарожна-транспартных здарэнняў на тэрыторыі Рэспублікі Беларусь._x000D_
 _x000D_
-[Інструкцыя па карыстанню бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Інструкцыя па карыстанню бота&lt;/a&gt;_x000D_
 _x000D_
-Атрымаць інфармацыю аб усіх адпраўленых здарэннях можна праз [API](https://github.com/ilyukou/beldtp-api) або спампаваць іх з [хмарнага сховішча](https://github.com/ilyukou/beldtp-api/tree /master/docs/Drive.md)._x000D_
+Атрымаць інфармацыю аб усіх адпраўленых здарэннях можна праз &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; або спампаваць іх з &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;хмарнага сховішча&lt;/a&gt;._x000D_
 _x000D_
-Кожнае новае адпраўленае здарэнне будзе публікавацца ў [канале](http://t.me/beldtp)_x000D_
+Кожнае новае адпраўленае здарэнне будзе публікавацца ў &lt;a href="http://t.me/beldtp"&gt;канале&lt;/a&gt;
 _x000D_
-[Група](http://t.me/beldtp_chat) па пытаннях ДТЗ, парушэнняў ППД ў Беларусі_x000D_
+&lt;a href="http://t.me/beldtp_chat"&gt;Група&lt;/a&gt; па пытаннях ДТЗ, парушэнняў ППД ў Беларусі_x000D_
 _x000D_
-[Аўтар праекта](http://t.me/ilyukou)</t>
+&lt;a href="http://t.me/ilyukou"&gt;Аўтар праекта&lt;/a&gt;</t>
   </si>
   <si>
     <t>Помощь
-[Инструкция по использованию бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Инструкция по использованию бота&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Help_x000D_
 _x000D_
-[Instructions for using the bot](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md) </t>
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Instructions for using the bot&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Дапамога_x000D_
 _x000D_
-[Інструкцыя па выкарыстанні бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md) </t>
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Інструкцыя па выкарыстанні бота&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt;
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md"&gt;Инструкция для разработчика&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt;_x000D_
+_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md"&gt;Developer Guide&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt;_x000D_
+_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Dev.md"&gt;Інструкцыя для распрацоўніка&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The bot was created to fill the public database of traffic accidents in the Republic of Belarus._x000D_
+_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Instructions for using the bot&lt;/a&gt;
+_x000D_
+You can get information about all sent incidents via the &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; or download them from &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;cloud storage&lt;/a&gt;
+_x000D_
+Each newly sent incident will be published on &lt;a href="http://t.me/beldtp"&gt;channel&lt;/a&gt;
+_x000D_
+&lt;a href="http://t.me/beldtp_chat"&gt;Group&lt;/a&gt; on traffic accidents, traffic violations in Belarus_x000D_
+_x000D_
+&lt;a href="http://t.me/ilyukou"&gt;Project author&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Бот створаны для напаўнення агульнадаступнай базы дарожна-транспартных здарэнняў на тэрыторыі Рэспублікі Беларусь._x000D_
+_x000D_
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Інструкцыя па карыстанню бота&lt;/a&gt;
+_x000D_
+Атрымаць інфармацыю аб усіх адпраўленых здарэннях можна праз &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; або спампаваць іх з &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;хмарнага сховішча&lt;/a&gt;.
+_x000D_
+Кожнае новае адпраўленае здарэнне будзе публікавацца ў &lt;a href="http://t.me/beldtp"&gt;канале&lt;/a&gt;
+_x000D_
+&lt;a href="http://t.me/beldtp_chat"&gt;Група&lt;/a&gt; па пытаннях ДТЗ, парушэнняў ППД ў Беларусі_x000D_
+_x000D_
+&lt;a href="http://t.me/ilyukou"&gt;Аўтар праекта&lt;/a&gt;</t>
   </si>
   <si>
     <t>Бот создан для наполнения общедоступной базы дорожно-транспортных происшествий на территории Республики Беларусь.
-[Инструкция по использованию бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)
-Получить информацию о всех отправленных происшествиях можно через [API](https://github.com/ilyukou/beldtp-api) или скачать их из [облачного хранилища](https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md). 
-Каждое новое отправленное происшествие будет публиковаться в [канале](http://t.me/beldtp)
-[Группа](http://t.me/beldtp_chat) по вопросам ДТП, нарушений ППД в Беларуси
-[Автор проекта](http://t.me/ilyukou)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bot was created to fill the public database of traffic accidents in the Republic of Belarus._x000D_
-_x000D_
-[Instructions for using the bot](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)_x000D_
-_x000D_
-You can get information about all sent incidents via the [API](https://github.com/ilyukou/beldtp-api) or download them from [cloud storage](https://github.com/ilyukou/beldtp-api/tree /master/docs/Drive.md)._x000D_
-_x000D_
-Each newly sent incident will be published on [channel](http://t.me/beldtp)_x000D_
-_x000D_
-[Group](http://t.me/beldtp_chat) on traffic accidents, traffic violations in Belarus_x000D_
-_x000D_
-[Project author](http://t.me/ilyukou) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бот створаны для напаўнення агульнадаступнай базы дарожна-транспартных здарэнняў на тэрыторыі Рэспублікі Беларусь._x000D_
-_x000D_
-[Інструкцыя па карыстанню бота](https://github.com/ilyukou/beldtp/tree/master/docs/Help.md)_x000D_
-_x000D_
-Атрымаць інфармацыю аб усіх адпраўленых здарэннях можна праз [API](https://github.com/ilyukou/beldtp-api) або спампаваць іх з [хмарнага сховішча](https://github.com/ilyukou/beldtp-api/tree /master/docs/Drive.md)._x000D_
-_x000D_
-Кожнае новае адпраўленае здарэнне будзе публікавацца ў [канале](http://t.me/beldtp)_x000D_
-_x000D_
-[Група](http://t.me/beldtp_chat) па пытаннях ДТЗ, парушэнняў ППД ў Беларусі_x000D_
-_x000D_
-[Аўтар праекта](http://t.me/ilyukou) </t>
+&lt;a href="https://github.com/ilyukou/beldtp/tree/master/docs/Help.md"&gt;Инструкция по использованию бота&lt;/a&gt;
+Получить информацию о всех отправленных происшествиях можно через &lt;a href="https://github.com/ilyukou/beldtp-api"&gt;API&lt;/a&gt; или скачать их из &lt;a href="https://github.com/ilyukou/beldtp-api/tree/master/docs/Drive.md"&gt;облачного хранилища&lt;/a&gt;. 
+Каждое новое отправленное происшествие будет публиковаться в &lt;a href="http://t.me/beldtp"&gt;канале&lt;/a&gt;
+&lt;a href="http://t.me/beldtp_chat"&gt;Группа&lt;/a&gt; по вопросам ДТП, нарушений ППД в Беларуси
+&lt;a href="http://t.me/ilyukou"&gt;Автор проекта&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1846,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1867,10 +1888,10 @@
         <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1885,10 +1906,10 @@
         <v>273</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1903,10 +1924,10 @@
         <v>274</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -1921,7 +1942,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>252</v>
@@ -1936,16 +1957,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1954,13 +1975,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2017,7 +2038,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2026,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
@@ -2044,16 +2065,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="362.25" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2062,13 +2083,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2083,10 +2104,10 @@
         <v>264</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2101,7 +2122,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>238</v>
@@ -2119,10 +2140,10 @@
         <v>250</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,13 +2191,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -2191,10 +2212,10 @@
         <v>268</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2248,7 +2269,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2281,7 +2302,7 @@
         <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>247</v>
@@ -2296,13 +2317,13 @@
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2317,7 +2338,7 @@
         <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>246</v>
@@ -2425,7 +2446,7 @@
         <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>240</v>
@@ -2443,7 +2464,7 @@
         <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>238</v>
@@ -2461,7 +2482,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>237</v>
@@ -2479,7 +2500,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>236</v>
@@ -2497,10 +2518,10 @@
         <v>270</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2533,7 +2554,7 @@
         <v>289</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>234</v>
@@ -2551,7 +2572,7 @@
         <v>217</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>230</v>
@@ -2569,7 +2590,7 @@
         <v>271</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>232</v>
@@ -2587,7 +2608,7 @@
         <v>231</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>233</v>
@@ -2605,10 +2626,10 @@
         <v>272</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2620,13 +2641,13 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
@@ -2638,13 +2659,13 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -2656,13 +2677,13 @@
         <v>287</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
@@ -2671,16 +2692,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
@@ -2692,13 +2713,13 @@
         <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2713,10 +2734,10 @@
         <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2749,7 +2770,7 @@
         <v>115</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>228</v>
@@ -2785,7 +2806,7 @@
         <v>139</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>226</v>
@@ -2803,7 +2824,7 @@
         <v>140</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>225</v>
@@ -3217,10 +3238,10 @@
         <v>285</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
@@ -3232,13 +3253,13 @@
         <v>256</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
@@ -3250,13 +3271,13 @@
         <v>255</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3268,31 +3289,31 @@
         <v>265</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <f t="shared" ref="A82:A87" si="2">A81+1</f>
+        <f t="shared" ref="A82:A89" si="2">A81+1</f>
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3301,16 +3322,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3325,10 +3346,10 @@
         <v>291</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3343,10 +3364,10 @@
         <v>292</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3355,33 +3376,69 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3393,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A88" sqref="A88:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,10 +3500,10 @@
         <v>269</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3459,13 +3516,13 @@
         <v>setting</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3481,7 +3538,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>97</v>
@@ -3500,10 +3557,10 @@
         <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3519,7 +3576,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>142</v>
@@ -3538,10 +3595,10 @@
         <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3557,10 +3614,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3658,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3677,10 +3734,10 @@
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3696,7 +3753,7 @@
         <v>264</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>Sheet1!E15</f>
@@ -3821,10 +3878,10 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3942,7 +3999,7 @@
         <v>whatLanguageAreUsed</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>Sheet1!D27</f>
@@ -4337,7 +4394,7 @@
         <v>262</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4353,10 +4410,10 @@
         <v>257</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4372,10 +4429,10 @@
         <v>286</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4388,13 +4445,13 @@
         <v>attachmentFileWasAdded</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4410,10 +4467,10 @@
         <v>258</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5002,15 +5059,15 @@
         <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <f t="shared" ref="A79:A87" si="0">A78+1</f>
+        <f t="shared" ref="A79:A89" si="0">A78+1</f>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="str">
@@ -5021,10 +5078,10 @@
         <v>259</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5040,10 +5097,10 @@
         <v>260</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5055,13 +5112,13 @@
         <v>265</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5073,13 +5130,13 @@
         <v>266</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5088,16 +5145,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5112,10 +5169,10 @@
         <v>291</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5130,10 +5187,10 @@
         <v>292</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5142,33 +5199,69 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>141</v>
       </c>
     </row>
